--- a/2019年/样品单.xlsx
+++ b/2019年/样品单.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$85</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="156">
   <si>
     <t>样品汇总单</t>
   </si>
@@ -427,6 +427,18 @@
   </si>
   <si>
     <t>0603HR02-Z,39-43MCD,618-625NM,1.9-2.0V,红光</t>
+  </si>
+  <si>
+    <t>向林阳</t>
+  </si>
+  <si>
+    <t>G2835UW28B-E/65-SF/C28/3.1-3.2V</t>
+  </si>
+  <si>
+    <t>苏军良</t>
+  </si>
+  <si>
+    <t>G2835UW55-13,12色区</t>
   </si>
   <si>
     <t>样品型号</t>
@@ -499,9 +511,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -532,32 +544,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,24 +580,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,6 +593,14 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -623,8 +619,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,15 +675,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,25 +702,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,19 +750,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -744,13 +762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,7 +774,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,49 +792,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,7 +816,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,31 +852,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,15 +926,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -934,6 +937,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -976,26 +1008,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1004,149 +1016,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1179,6 +1191,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1528,14 +1546,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I90" sqref="I90"/>
+      <selection pane="bottomRight" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -3012,25 +3030,163 @@
       <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7">
-      <c r="A86" s="4"/>
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="A86" s="8">
+        <v>43934</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1500</v>
+      </c>
+      <c r="E86" s="4">
+        <v>11.5</v>
+      </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:7">
-      <c r="A87" s="4"/>
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
+      <c r="A87" s="8">
+        <v>43934</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D87" s="4">
+        <v>100</v>
+      </c>
+      <c r="E87" s="4">
+        <v>70</v>
+      </c>
+      <c r="F87" s="4">
+        <v>80</v>
+      </c>
       <c r="G87" s="4"/>
     </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="11">
+        <v>43934</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D88" s="12">
+        <v>100</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="12"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:G82">
+  <autoFilter ref="A2:G85">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
@@ -3060,10 +3216,10 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>4</v>
@@ -3071,79 +3227,79 @@
     </row>
     <row r="3" ht="43.2" spans="2:4">
       <c r="B3" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="2:4">
       <c r="B4" s="4" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/2019年/样品单.xlsx
+++ b/2019年/样品单.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">样品汇总!$A$2:$G$88</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -511,10 +511,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -538,66 +538,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -605,7 +553,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,11 +575,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -643,10 +604,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -669,6 +654,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,13 +702,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,43 +750,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -768,25 +786,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,7 +804,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,7 +834,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,49 +864,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,17 +911,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,31 +935,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,6 +988,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1016,149 +1016,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1191,12 +1191,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1549,11 +1543,11 @@
   <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C69" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C98" sqref="C98"/>
+      <selection pane="bottomRight" activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -3070,123 +3064,123 @@
       <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:7">
-      <c r="A88" s="11">
+      <c r="A88" s="8">
         <v>43934</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C88" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D88" s="12">
-        <v>100</v>
-      </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
+      <c r="D88" s="4">
+        <v>100</v>
+      </c>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
     </row>
     <row r="89" spans="1:7">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
     </row>
     <row r="90" spans="1:7">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
     </row>
     <row r="93" spans="1:7">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95" spans="1:7">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
     </row>
     <row r="96" spans="1:7">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
     </row>
     <row r="97" spans="1:7">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
     </row>
     <row r="98" spans="1:7">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
     </row>
     <row r="99" spans="1:7">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:G85">
+  <autoFilter ref="A2:G88">
     <extLst/>
   </autoFilter>
   <mergeCells count="1">
